--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\flashscore-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241141C-62F2-49BC-9487-6031947100E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18396B0C-36ED-413A-BBB3-97CE23B5EDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Home Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>More than 3</t>
+  </si>
+  <si>
+    <t>No. Of Ties</t>
   </si>
 </sst>
 </file>
@@ -408,20 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="19" width="15.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -450,34 +455,46 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
